--- a/Diccionario de Datos.xlsx
+++ b/Diccionario de Datos.xlsx
@@ -5,14 +5,15 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\juan.perezb\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\amaa2\Desktop\Polimer\practicasPolymer2\proyectofinal\proyecto2\proyectoContactos\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="campos contactos" sheetId="1" r:id="rId1"/>
+    <sheet name="componente editar" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="25">
   <si>
     <t>CONTACTOS</t>
   </si>
@@ -72,6 +73,33 @@
   </si>
   <si>
     <t>TAMAÑO</t>
+  </si>
+  <si>
+    <t>componente</t>
+  </si>
+  <si>
+    <t>form-contacto</t>
+  </si>
+  <si>
+    <t>descripcion</t>
+  </si>
+  <si>
+    <t>Componente para editar contactos y agregar</t>
+  </si>
+  <si>
+    <t>parametros entrada</t>
+  </si>
+  <si>
+    <t>tipo</t>
+  </si>
+  <si>
+    <t>idcontacto</t>
+  </si>
+  <si>
+    <t>recibe 'new' o 'edit' según que tipo de operación se realice</t>
+  </si>
+  <si>
+    <t>recibe el valor $key del contacto seleccionado ($key viene en la consulta como propiedad)</t>
   </si>
 </sst>
 </file>
@@ -102,7 +130,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -118,6 +146,18 @@
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.39997558519241921"/>
         <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -165,14 +205,8 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -182,14 +216,55 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="60% - Accent5" xfId="2" builtinId="48"/>
     <cellStyle name="Check Cell" xfId="1" builtinId="23"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD7D7D7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+      <tableStyleElement type="wholeTable" dxfId="1"/>
+      <tableStyleElement type="headerRow" dxfId="0"/>
+    </tableStyle>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -466,8 +541,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -476,130 +551,130 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="3" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D6" s="1">
         <v>50</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D7" s="3">
+      <c r="D7" s="1">
         <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D8" s="1">
         <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D9" s="3">
+      <c r="D9" s="1">
         <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C10" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D10" s="3">
+      <c r="D10" s="1">
         <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C11" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D11" s="3">
+      <c r="D11" s="1">
         <v>7</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D12" s="3">
+      <c r="D12" s="1">
         <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="C13" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D13" s="3">
+      <c r="D13" s="1">
         <v>30</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="C14" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D14" s="3">
+      <c r="D14" s="1">
         <v>35</v>
       </c>
     </row>
@@ -610,4 +685,64 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A3:B8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="24.85546875" customWidth="1"/>
+    <col min="2" max="2" width="55.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" s="7"/>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A6:B6"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>